--- a/data/eBooks-main/current/blazor-for-web-forms-developers/Blazor-for-ASP-NET-Web-Forms-Developers.pdf.hwaifs/tables/py/gmft/df.tables-15.xlsx
+++ b/data/eBooks-main/current/blazor-for-web-forms-developers/Blazor-for-ASP-NET-Web-Forms-Developers.pdf.hwaifs/tables/py/gmft/df.tables-15.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="B1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,86 +425,8 @@
       <c r="B1" t="inlineStr"/>
       <c r="C1" t="inlineStr"/>
       <c r="D1" t="inlineStr"/>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>@code</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>{</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>{</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>protected override async Task</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>OnInitializedAsync()</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>var client =</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>factory.CreateClient("github");</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>var response = await response.EnsureStatusCode();</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>client.GetAsync("repos/dotnet/docs/issues");</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>var content = await response.Content.ReadAsStringAsync();</t>
-        </is>
-      </c>
+      <c r="E1" t="inlineStr"/>
+      <c r="F1" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
